--- a/API URLs.xlsx
+++ b/API URLs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\Git\ThirdYearProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ThirdYearProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,16 +35,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>http://localhost:3688/api/timetable/{id}</t>
-  </si>
-  <si>
     <t>Returns a Json representation of today's timetable for the user specified in {id}</t>
   </si>
   <si>
-    <t>http://localhost:3688/api/Timetables/GetRoomTimeTable?id={roomid}&amp;weekDayNum={weekdayNum}</t>
-  </si>
-  <si>
     <t>Returns a Json representation of the timetable for the room specified in {roomid} for the day specified by {weekdayNum} (1 = Sunday, 2 = Monday, etc.)</t>
+  </si>
+  <si>
+    <t>http://signmeinwebapi.azurewebsites.net/api/timetable/{id}</t>
+  </si>
+  <si>
+    <t>http://signmeinwebapi.azurewebsites.net/api/Timetables/GetRoomTimeTable?id={roomid}&amp;weekDayNum={weekdayNum}</t>
   </si>
 </sst>
 </file>
@@ -98,10 +98,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,21 +386,21 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="115.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="138.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -411,19 +411,19 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/API URLs.xlsx
+++ b/API URLs.xlsx
@@ -41,10 +41,10 @@
     <t>Returns a Json representation of the timetable for the room specified in {roomid} for the day specified by {weekdayNum} (1 = Sunday, 2 = Monday, etc.)</t>
   </si>
   <si>
-    <t>http://signmeinwebapi.azurewebsites.net/api/timetable/{id}</t>
-  </si>
-  <si>
     <t>http://signmeinwebapi.azurewebsites.net/api/Timetables/GetRoomTimeTable?id={roomid}&amp;weekDayNum={weekdayNum}</t>
+  </si>
+  <si>
+    <t>http://signmeinwebapi.azurewebsites.net/api/timetables/{id}</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +412,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>

--- a/API URLs.xlsx
+++ b/API URLs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Web API URLs</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>http://signmeinwebapi.azurewebsites.net/api/timetables/{id}</t>
+  </si>
+  <si>
+    <t>Returns Json representation of the timetable for user specified in {id} for the day specified in {weekdayNum} (1 = Sunday, 2 = Monday, etc.)</t>
+  </si>
+  <si>
+    <t>http://signmeinwebapi.azurewebsites.net/api/timetables/{id}?dayOfWeek={weekdayNum}</t>
   </si>
 </sst>
 </file>
@@ -383,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,9 +426,17 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -432,9 +446,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/API URLs.xlsx
+++ b/API URLs.xlsx
@@ -35,9 +35,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Returns a Json representation of today's timetable for the user specified in {id}</t>
-  </si>
-  <si>
     <t>Returns a Json representation of the timetable for the room specified in {roomid} for the day specified by {weekdayNum} (1 = Sunday, 2 = Monday, etc.)</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>http://signmeinwebapi.azurewebsites.net/api/timetables/{id}?dayOfWeek={weekdayNum}</t>
+  </si>
+  <si>
+    <t>Returns a Json representation of this week's timetable for the user specified in {id}</t>
   </si>
 </sst>
 </file>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,26 +418,26 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
